--- a/test_outputs.xlsx
+++ b/test_outputs.xlsx
@@ -344,7 +344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2814,6 +2814,1926 @@
         <v>5374259.350625235</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10MW_1MWh</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>10</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2607909.062509559</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H62" t="n">
+        <v>333631.0619485307</v>
+      </c>
+      <c r="I62" t="n">
+        <v>25309.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2107824.062509559</v>
+      </c>
+      <c r="L62" t="n">
+        <v>500085</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10MW_5MWh</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>10</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3436192.72236147</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H63" t="n">
+        <v>333631.0619485307</v>
+      </c>
+      <c r="I63" t="n">
+        <v>25309.5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2107824.062509559</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1328368.65985191</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>10MW_10MWh</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10</v>
+      </c>
+      <c r="C64" t="n">
+        <v>10</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4131047.410504716</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H64" t="n">
+        <v>333631.0619485307</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25309.5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2107824.062509559</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2023223.347995156</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>10</v>
+      </c>
+      <c r="C65" t="n">
+        <v>50</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8809798.300928917</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I65" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3435538.950303682</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>10MW_100MWh</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>10</v>
+      </c>
+      <c r="C66" t="n">
+        <v>100</v>
+      </c>
+      <c r="D66" t="n">
+        <v>13315027.78122859</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3182727.379485307</v>
+      </c>
+      <c r="I66" t="n">
+        <v>179943</v>
+      </c>
+      <c r="J66" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K66" t="n">
+        <v>5129553.880046336</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8185473.901182257</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>10MW_500MWh</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>10</v>
+      </c>
+      <c r="C67" t="n">
+        <v>500</v>
+      </c>
+      <c r="D67" t="n">
+        <v>40262346.1679128</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H67" t="n">
+        <v>15805301.97742654</v>
+      </c>
+      <c r="I67" t="n">
+        <v>867203</v>
+      </c>
+      <c r="J67" t="n">
+        <v>105000</v>
+      </c>
+      <c r="K67" t="n">
+        <v>18519388.47798757</v>
+      </c>
+      <c r="L67" t="n">
+        <v>21742957.68992523</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>50</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7800231.728859336</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>232316.9284914477</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I68" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2425972.378234101</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>50</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7952710.928983834</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>384796.1286159452</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I69" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J69" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2578451.578358599</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>5MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>50</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8317689.912275264</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>749775.1119073755</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I70" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2943430.561650029</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>10MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>10</v>
+      </c>
+      <c r="C71" t="n">
+        <v>50</v>
+      </c>
+      <c r="D71" t="n">
+        <v>8809798.300928917</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I71" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3435538.950303682</v>
+      </c>
+      <c r="L71" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>50MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>50</v>
+      </c>
+      <c r="C72" t="n">
+        <v>50</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10576265.34341299</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2458610.043045104</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1049740.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I72" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K72" t="n">
+        <v>5202005.992787758</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>100MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>100</v>
+      </c>
+      <c r="C73" t="n">
+        <v>50</v>
+      </c>
+      <c r="D73" t="n">
+        <v>12768139.88159154</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2956469.651481002</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1049740.5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3182727.379485307</v>
+      </c>
+      <c r="I73" t="n">
+        <v>179943</v>
+      </c>
+      <c r="J73" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K73" t="n">
+        <v>7393880.530966309</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10MW_1MWh</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2607909.062509559</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H74" t="n">
+        <v>333631.0619485307</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25309.5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2107824.062509559</v>
+      </c>
+      <c r="L74" t="n">
+        <v>500085</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>10MW_5MWh</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>10</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3436192.72236147</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H75" t="n">
+        <v>333631.0619485307</v>
+      </c>
+      <c r="I75" t="n">
+        <v>25309.5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2107824.062509559</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1328368.65985191</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>10MW_10MWh</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>10</v>
+      </c>
+      <c r="C76" t="n">
+        <v>10</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4131047.410504716</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H76" t="n">
+        <v>333631.0619485307</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25309.5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2107824.062509559</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2023223.347995156</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>10</v>
+      </c>
+      <c r="C77" t="n">
+        <v>50</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8809798.300928917</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I77" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3435538.950303682</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10MW_100MWh</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" t="n">
+        <v>100</v>
+      </c>
+      <c r="D78" t="n">
+        <v>13315027.78122859</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3182727.379485307</v>
+      </c>
+      <c r="I78" t="n">
+        <v>179943</v>
+      </c>
+      <c r="J78" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K78" t="n">
+        <v>5129553.880046336</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8185473.901182257</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>10MW_500MWh</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>10</v>
+      </c>
+      <c r="C79" t="n">
+        <v>500</v>
+      </c>
+      <c r="D79" t="n">
+        <v>40262346.1679128</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H79" t="n">
+        <v>15805301.97742654</v>
+      </c>
+      <c r="I79" t="n">
+        <v>867203</v>
+      </c>
+      <c r="J79" t="n">
+        <v>105000</v>
+      </c>
+      <c r="K79" t="n">
+        <v>18519388.47798757</v>
+      </c>
+      <c r="L79" t="n">
+        <v>21742957.68992523</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>50</v>
+      </c>
+      <c r="D80" t="n">
+        <v>7800231.728859336</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G80" t="n">
+        <v>232316.9284914477</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I80" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2425972.378234101</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>50</v>
+      </c>
+      <c r="D81" t="n">
+        <v>7952710.928983834</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>384796.1286159452</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I81" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2578451.578358599</v>
+      </c>
+      <c r="L81" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>5MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>50</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8317689.912275264</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>749775.1119073755</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I82" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2943430.561650029</v>
+      </c>
+      <c r="L82" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>10MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>10</v>
+      </c>
+      <c r="C83" t="n">
+        <v>50</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8809798.300928917</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I83" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3435538.950303682</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>50MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>50</v>
+      </c>
+      <c r="C84" t="n">
+        <v>50</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10576265.34341299</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2458610.043045104</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1049740.5</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I84" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J84" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K84" t="n">
+        <v>5202005.992787758</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>100MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>100</v>
+      </c>
+      <c r="C85" t="n">
+        <v>50</v>
+      </c>
+      <c r="D85" t="n">
+        <v>12768139.88159154</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2956469.651481002</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1049740.5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3182727.379485307</v>
+      </c>
+      <c r="I85" t="n">
+        <v>179943</v>
+      </c>
+      <c r="J85" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K85" t="n">
+        <v>7393880.530966309</v>
+      </c>
+      <c r="L85" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10MW_1MWh</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>10</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2624762.332529137</v>
+      </c>
+      <c r="E86" t="n">
+        <v>16853.27001957825</v>
+      </c>
+      <c r="F86" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H86" t="n">
+        <v>333631.0619485307</v>
+      </c>
+      <c r="I86" t="n">
+        <v>25309.5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2124677.332529137</v>
+      </c>
+      <c r="L86" t="n">
+        <v>500085</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10MW_5MWh</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>10</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3453045.992381047</v>
+      </c>
+      <c r="E87" t="n">
+        <v>16853.27001957825</v>
+      </c>
+      <c r="F87" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H87" t="n">
+        <v>333631.0619485307</v>
+      </c>
+      <c r="I87" t="n">
+        <v>25309.5</v>
+      </c>
+      <c r="J87" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2124677.332529137</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1328368.65985191</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>10MW_10MWh</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>10</v>
+      </c>
+      <c r="C88" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4147900.680524293</v>
+      </c>
+      <c r="E88" t="n">
+        <v>16853.27001957825</v>
+      </c>
+      <c r="F88" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H88" t="n">
+        <v>333631.0619485307</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25309.5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2124677.332529137</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2023223.347995156</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>10MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>10</v>
+      </c>
+      <c r="C89" t="n">
+        <v>50</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8844862.020685595</v>
+      </c>
+      <c r="E89" t="n">
+        <v>35063.71975667703</v>
+      </c>
+      <c r="F89" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I89" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3470602.670060359</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>10MW_100MWh</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>10</v>
+      </c>
+      <c r="C90" t="n">
+        <v>100</v>
+      </c>
+      <c r="D90" t="n">
+        <v>13373289.64315664</v>
+      </c>
+      <c r="E90" t="n">
+        <v>58261.86192805049</v>
+      </c>
+      <c r="F90" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3182727.379485307</v>
+      </c>
+      <c r="I90" t="n">
+        <v>179943</v>
+      </c>
+      <c r="J90" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K90" t="n">
+        <v>5187815.741974386</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8185473.901182257</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>10MW_500MWh</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>10</v>
+      </c>
+      <c r="C91" t="n">
+        <v>500</v>
+      </c>
+      <c r="D91" t="n">
+        <v>40505105.46721184</v>
+      </c>
+      <c r="E91" t="n">
+        <v>242759.2992990382</v>
+      </c>
+      <c r="F91" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H91" t="n">
+        <v>15805301.97742654</v>
+      </c>
+      <c r="I91" t="n">
+        <v>867203</v>
+      </c>
+      <c r="J91" t="n">
+        <v>105000</v>
+      </c>
+      <c r="K91" t="n">
+        <v>18762147.7772866</v>
+      </c>
+      <c r="L91" t="n">
+        <v>21742957.68992523</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>50</v>
+      </c>
+      <c r="D92" t="n">
+        <v>7835295.448616013</v>
+      </c>
+      <c r="E92" t="n">
+        <v>35063.71975667703</v>
+      </c>
+      <c r="F92" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>232316.9284914477</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I92" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2461036.097990778</v>
+      </c>
+      <c r="L92" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>50</v>
+      </c>
+      <c r="D93" t="n">
+        <v>7987774.64874051</v>
+      </c>
+      <c r="E93" t="n">
+        <v>35063.71975667703</v>
+      </c>
+      <c r="F93" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>384796.1286159452</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I93" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2613515.298115276</v>
+      </c>
+      <c r="L93" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>5MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>50</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8352753.632031941</v>
+      </c>
+      <c r="E94" t="n">
+        <v>35063.71975667703</v>
+      </c>
+      <c r="F94" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>749775.1119073755</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I94" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2978494.281406706</v>
+      </c>
+      <c r="L94" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>10MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>10</v>
+      </c>
+      <c r="C95" t="n">
+        <v>50</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8844862.020685595</v>
+      </c>
+      <c r="E95" t="n">
+        <v>35063.71975667703</v>
+      </c>
+      <c r="F95" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I95" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3470602.670060359</v>
+      </c>
+      <c r="L95" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>50MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>50</v>
+      </c>
+      <c r="C96" t="n">
+        <v>50</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10611329.06316967</v>
+      </c>
+      <c r="E96" t="n">
+        <v>35063.71975667703</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2458610.043045104</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1049740.5</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I96" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J96" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K96" t="n">
+        <v>5237069.712544435</v>
+      </c>
+      <c r="L96" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>100MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>100</v>
+      </c>
+      <c r="C97" t="n">
+        <v>50</v>
+      </c>
+      <c r="D97" t="n">
+        <v>12826401.74351959</v>
+      </c>
+      <c r="E97" t="n">
+        <v>58261.86192805049</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2956469.651481002</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1049740.5</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3182727.379485307</v>
+      </c>
+      <c r="I97" t="n">
+        <v>179943</v>
+      </c>
+      <c r="J97" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K97" t="n">
+        <v>7452142.392894359</v>
+      </c>
+      <c r="L97" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>10MW_1MWh</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>10</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2624762.332529137</v>
+      </c>
+      <c r="E98" t="n">
+        <v>16853.27001957825</v>
+      </c>
+      <c r="F98" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H98" t="n">
+        <v>333631.0619485307</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25309.5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2124677.332529137</v>
+      </c>
+      <c r="L98" t="n">
+        <v>500085</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>10MW_5MWh</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>10</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3453045.992381047</v>
+      </c>
+      <c r="E99" t="n">
+        <v>16853.27001957825</v>
+      </c>
+      <c r="F99" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H99" t="n">
+        <v>333631.0619485307</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25309.5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2124677.332529137</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1328368.65985191</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>10MW_10MWh</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>10</v>
+      </c>
+      <c r="C100" t="n">
+        <v>10</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4147900.680524293</v>
+      </c>
+      <c r="E100" t="n">
+        <v>16853.27001957825</v>
+      </c>
+      <c r="F100" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H100" t="n">
+        <v>333631.0619485307</v>
+      </c>
+      <c r="I100" t="n">
+        <v>25309.5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2124677.332529137</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2023223.347995156</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>10MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>10</v>
+      </c>
+      <c r="C101" t="n">
+        <v>50</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8844862.020685595</v>
+      </c>
+      <c r="E101" t="n">
+        <v>35063.71975667703</v>
+      </c>
+      <c r="F101" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I101" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3470602.670060359</v>
+      </c>
+      <c r="L101" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>10MW_100MWh</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>10</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="n">
+        <v>13373289.64315664</v>
+      </c>
+      <c r="E102" t="n">
+        <v>58261.86192805049</v>
+      </c>
+      <c r="F102" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3182727.379485307</v>
+      </c>
+      <c r="I102" t="n">
+        <v>179943</v>
+      </c>
+      <c r="J102" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K102" t="n">
+        <v>5187815.741974386</v>
+      </c>
+      <c r="L102" t="n">
+        <v>8185473.901182257</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>10MW_500MWh</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>10</v>
+      </c>
+      <c r="C103" t="n">
+        <v>500</v>
+      </c>
+      <c r="D103" t="n">
+        <v>40505105.46721184</v>
+      </c>
+      <c r="E103" t="n">
+        <v>242759.2992990382</v>
+      </c>
+      <c r="F103" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H103" t="n">
+        <v>15805301.97742654</v>
+      </c>
+      <c r="I103" t="n">
+        <v>867203</v>
+      </c>
+      <c r="J103" t="n">
+        <v>105000</v>
+      </c>
+      <c r="K103" t="n">
+        <v>18762147.7772866</v>
+      </c>
+      <c r="L103" t="n">
+        <v>21742957.68992523</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>50</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7835295.448616013</v>
+      </c>
+      <c r="E104" t="n">
+        <v>35063.71975667703</v>
+      </c>
+      <c r="F104" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>232316.9284914477</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I104" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J104" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2461036.097990778</v>
+      </c>
+      <c r="L104" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>50</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7987774.64874051</v>
+      </c>
+      <c r="E105" t="n">
+        <v>35063.71975667703</v>
+      </c>
+      <c r="F105" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>384796.1286159452</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I105" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J105" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2613515.298115276</v>
+      </c>
+      <c r="L105" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>5MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>50</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8352753.632031941</v>
+      </c>
+      <c r="E106" t="n">
+        <v>35063.71975667703</v>
+      </c>
+      <c r="F106" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>749775.1119073755</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I106" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2978494.281406706</v>
+      </c>
+      <c r="L106" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>10MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>10</v>
+      </c>
+      <c r="C107" t="n">
+        <v>50</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8844862.020685595</v>
+      </c>
+      <c r="E107" t="n">
+        <v>35063.71975667703</v>
+      </c>
+      <c r="F107" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1241883.500561028</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I107" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J107" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K107" t="n">
+        <v>3470602.670060359</v>
+      </c>
+      <c r="L107" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>50MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>50</v>
+      </c>
+      <c r="C108" t="n">
+        <v>50</v>
+      </c>
+      <c r="D108" t="n">
+        <v>10611329.06316967</v>
+      </c>
+      <c r="E108" t="n">
+        <v>35063.71975667703</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2458610.043045104</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1049740.5</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1584619.949742654</v>
+      </c>
+      <c r="I108" t="n">
+        <v>94035.5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K108" t="n">
+        <v>5237069.712544435</v>
+      </c>
+      <c r="L108" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>100MW_50MWh</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>100</v>
+      </c>
+      <c r="C109" t="n">
+        <v>50</v>
+      </c>
+      <c r="D109" t="n">
+        <v>12826401.74351959</v>
+      </c>
+      <c r="E109" t="n">
+        <v>58261.86192805049</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2956469.651481002</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1049740.5</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3182727.379485307</v>
+      </c>
+      <c r="I109" t="n">
+        <v>179943</v>
+      </c>
+      <c r="J109" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K109" t="n">
+        <v>7452142.392894359</v>
+      </c>
+      <c r="L109" t="n">
+        <v>5374259.350625235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
